--- a/Dati contagi nelle scuole/Regioni/Puglia/ASL Bari/Monitoraggio Sars Cov 2 Scuola.xlsx
+++ b/Dati contagi nelle scuole/Regioni/Puglia/ASL Bari/Monitoraggio Sars Cov 2 Scuola.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/Regioni/Puglia/ASL Bari/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53EB2FE-D6BB-D040-986B-FE75EDF01024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C543CADF-C692-1642-B802-E3924EF1CFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="500" windowWidth="27640" windowHeight="15620" activeTab="4" xr2:uid="{B643088D-8FE3-644D-84EE-2D91600EE21A}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15620" activeTab="4" xr2:uid="{B643088D-8FE3-644D-84EE-2D91600EE21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Infanzia" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
   <si>
     <t>Settimana</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>10/01/2022 - 16/01/2022</t>
+  </si>
+  <si>
+    <t>17/01/2022 - 23/01/2022</t>
   </si>
 </sst>
 </file>
@@ -431,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9278DC-00A0-DB4E-8EB9-A043785ADAD8}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,6 +596,20 @@
         <v>125</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>127</v>
+      </c>
+      <c r="D12">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -600,10 +617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54670CD4-2A49-1645-BF6D-6B94DBB7C9FF}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,6 +779,20 @@
         <v>327</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>392</v>
+      </c>
+      <c r="D12">
+        <v>429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -769,10 +800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367C1A05-D68E-F74B-BDB3-9CC8E0DA655F}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -931,6 +962,20 @@
         <v>95</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>163</v>
+      </c>
+      <c r="D12">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -938,10 +983,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FA67A4-C8F9-1245-9B3D-8A7D1F1C16BC}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1100,6 +1145,20 @@
         <v>220</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>204</v>
+      </c>
+      <c r="D12">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1107,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DCE7B0-F689-CB4C-93B6-1028243B2E1C}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1269,6 +1328,20 @@
         <v>767</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <v>886</v>
+      </c>
+      <c r="D12">
+        <v>952</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Regioni/Puglia/ASL Bari/Monitoraggio Sars Cov 2 Scuola.xlsx
+++ b/Dati contagi nelle scuole/Regioni/Puglia/ASL Bari/Monitoraggio Sars Cov 2 Scuola.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/Regioni/Puglia/ASL Bari/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C543CADF-C692-1642-B802-E3924EF1CFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6555D76E-17A5-694B-B106-A5AF1B04A9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15620" activeTab="4" xr2:uid="{B643088D-8FE3-644D-84EE-2D91600EE21A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
   <si>
     <t>Settimana</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>17/01/2022 - 23/01/2022</t>
+  </si>
+  <si>
+    <t>24/01/2022 - 30/01/2022</t>
   </si>
 </sst>
 </file>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9278DC-00A0-DB4E-8EB9-A043785ADAD8}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,6 +613,20 @@
         <v>143</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>189</v>
+      </c>
+      <c r="D13">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -617,10 +634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54670CD4-2A49-1645-BF6D-6B94DBB7C9FF}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,6 +810,20 @@
         <v>429</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>445</v>
+      </c>
+      <c r="D13">
+        <v>480</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -800,10 +831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367C1A05-D68E-F74B-BDB3-9CC8E0DA655F}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,6 +1007,20 @@
         <v>175</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>166</v>
+      </c>
+      <c r="D13">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -983,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FA67A4-C8F9-1245-9B3D-8A7D1F1C16BC}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1159,6 +1204,20 @@
         <v>205</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>226</v>
+      </c>
+      <c r="D13">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1166,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DCE7B0-F689-CB4C-93B6-1028243B2E1C}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1342,6 +1401,20 @@
         <v>952</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>84</v>
+      </c>
+      <c r="C13">
+        <v>1026</v>
+      </c>
+      <c r="D13">
+        <v>1110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Regioni/Puglia/ASL Bari/Monitoraggio Sars Cov 2 Scuola.xlsx
+++ b/Dati contagi nelle scuole/Regioni/Puglia/ASL Bari/Monitoraggio Sars Cov 2 Scuola.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/Regioni/Puglia/ASL Bari/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6555D76E-17A5-694B-B106-A5AF1B04A9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E628C493-4081-7247-8B9A-C0899B191A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15620" activeTab="4" xr2:uid="{B643088D-8FE3-644D-84EE-2D91600EE21A}"/>
+    <workbookView xWindow="10360" yWindow="500" windowWidth="27640" windowHeight="15620" activeTab="4" xr2:uid="{B643088D-8FE3-644D-84EE-2D91600EE21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Infanzia" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
   <si>
     <t>Settimana</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>24/01/2022 - 30/01/2022</t>
+  </si>
+  <si>
+    <t>31/01/2022 - 06/02/2022</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9278DC-00A0-DB4E-8EB9-A043785ADAD8}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,6 +630,20 @@
         <v>218</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>143</v>
+      </c>
+      <c r="D14">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -634,10 +651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54670CD4-2A49-1645-BF6D-6B94DBB7C9FF}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,6 +841,20 @@
         <v>480</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>388</v>
+      </c>
+      <c r="D14">
+        <v>415</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -831,10 +862,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367C1A05-D68E-F74B-BDB3-9CC8E0DA655F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1021,6 +1052,20 @@
         <v>170</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>228</v>
+      </c>
+      <c r="D14">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1028,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FA67A4-C8F9-1245-9B3D-8A7D1F1C16BC}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1218,6 +1263,20 @@
         <v>242</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>267</v>
+      </c>
+      <c r="D14">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1225,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DCE7B0-F689-CB4C-93B6-1028243B2E1C}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1415,6 +1474,20 @@
         <v>1110</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <v>1026</v>
+      </c>
+      <c r="D14">
+        <v>1103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Regioni/Puglia/ASL Bari/Monitoraggio Sars Cov 2 Scuola.xlsx
+++ b/Dati contagi nelle scuole/Regioni/Puglia/ASL Bari/Monitoraggio Sars Cov 2 Scuola.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/Regioni/Puglia/ASL Bari/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E628C493-4081-7247-8B9A-C0899B191A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234963CA-CFBD-8448-A540-16BB4562A235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="500" windowWidth="27640" windowHeight="15620" activeTab="4" xr2:uid="{B643088D-8FE3-644D-84EE-2D91600EE21A}"/>
+    <workbookView xWindow="16200" yWindow="500" windowWidth="27640" windowHeight="15620" activeTab="4" xr2:uid="{B643088D-8FE3-644D-84EE-2D91600EE21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Infanzia" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="18">
   <si>
     <t>Settimana</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>31/01/2022 - 06/02/2022</t>
+  </si>
+  <si>
+    <t>07/02/2022 - 13/02/2022</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9278DC-00A0-DB4E-8EB9-A043785ADAD8}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -644,6 +647,20 @@
         <v>176</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>173</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -651,10 +668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54670CD4-2A49-1645-BF6D-6B94DBB7C9FF}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,6 +872,20 @@
         <v>415</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>226</v>
+      </c>
+      <c r="D15">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -862,10 +893,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367C1A05-D68E-F74B-BDB3-9CC8E0DA655F}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,6 +1097,20 @@
         <v>232</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>183</v>
+      </c>
+      <c r="D15">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1073,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FA67A4-C8F9-1245-9B3D-8A7D1F1C16BC}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1277,6 +1322,20 @@
         <v>280</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>239</v>
+      </c>
+      <c r="D15">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1284,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DCE7B0-F689-CB4C-93B6-1028243B2E1C}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1488,6 +1547,20 @@
         <v>1103</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>821</v>
+      </c>
+      <c r="D15">
+        <v>887</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Regioni/Puglia/ASL Bari/Monitoraggio Sars Cov 2 Scuola.xlsx
+++ b/Dati contagi nelle scuole/Regioni/Puglia/ASL Bari/Monitoraggio Sars Cov 2 Scuola.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/Regioni/Puglia/ASL Bari/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234963CA-CFBD-8448-A540-16BB4562A235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4269833D-7FCB-7E49-BDEB-5FB69D07F84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="500" windowWidth="27640" windowHeight="15620" activeTab="4" xr2:uid="{B643088D-8FE3-644D-84EE-2D91600EE21A}"/>
+    <workbookView xWindow="22880" yWindow="500" windowWidth="21860" windowHeight="16060" activeTab="4" xr2:uid="{B643088D-8FE3-644D-84EE-2D91600EE21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Infanzia" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
   <si>
     <t>Settimana</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>07/02/2022 - 13/02/2022</t>
+  </si>
+  <si>
+    <t>14/02/2022 - 20/02/2022</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9278DC-00A0-DB4E-8EB9-A043785ADAD8}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,6 +664,20 @@
         <v>200</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>170</v>
+      </c>
+      <c r="D16">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -668,10 +685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54670CD4-2A49-1645-BF6D-6B94DBB7C9FF}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,6 +903,20 @@
         <v>238</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>315</v>
+      </c>
+      <c r="D16">
+        <v>344</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -893,10 +924,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367C1A05-D68E-F74B-BDB3-9CC8E0DA655F}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1111,6 +1142,20 @@
         <v>196</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>148</v>
+      </c>
+      <c r="D16">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1118,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FA67A4-C8F9-1245-9B3D-8A7D1F1C16BC}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1336,6 +1381,20 @@
         <v>253</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>174</v>
+      </c>
+      <c r="D16">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1343,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DCE7B0-F689-CB4C-93B6-1028243B2E1C}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1561,6 +1620,20 @@
         <v>887</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>807</v>
+      </c>
+      <c r="D16">
+        <v>857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
